--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TASK</t>
   </si>
@@ -38,22 +38,7 @@
     <t>Quantification of Structure Factor</t>
   </si>
   <si>
-    <t>Validate the results using FE simulation</t>
-  </si>
-  <si>
     <t>Validate initial results using FE simulation</t>
-  </si>
-  <si>
-    <t>Make predictions on unknown materials for aggregate properties</t>
-  </si>
-  <si>
-    <t>Create Image-Processing model</t>
-  </si>
-  <si>
-    <t>Define Inverse Optimization techniques</t>
-  </si>
-  <si>
-    <t>Implement alternative definition of structure factor</t>
   </si>
   <si>
     <t>Generate initial dataset with fixed particulate arrangement</t>
@@ -77,7 +62,10 @@
     <t>Evaluation and Summarising Results</t>
   </si>
   <si>
-    <t>Refine and tweak model</t>
+    <t>Create Image-Processing model and Inverse Optimization techniques</t>
+  </si>
+  <si>
+    <t>Make predictions and Validate using FE Simulations</t>
   </si>
 </sst>
 </file>
@@ -165,7 +153,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45044281913461226"/>
+          <c:y val="5.7910159798044335E-2"/>
+          <c:w val="0.49487869419879288"/>
+          <c:h val="0.89117496351142267"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -194,9 +192,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Literature review</c:v>
                 </c:pt>
@@ -222,24 +220,12 @@
                   <c:v>Build robust model comprising all parameters</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Make predictions on unknown materials for aggregate properties</c:v>
+                  <c:v>Make predictions and Validate using FE Simulations</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Validate the results using FE simulation</c:v>
+                  <c:v>Create Image-Processing model and Inverse Optimization techniques</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Implement alternative definition of structure factor</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Refine and tweak model</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Create Image-Processing model</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Define Inverse Optimization techniques</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Evaluation and Summarising Results</c:v>
                 </c:pt>
               </c:strCache>
@@ -247,10 +233,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42583</c:v>
                 </c:pt>
@@ -279,25 +265,10 @@
                   <c:v>42781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42795</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42809</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42814</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42821</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42836</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42850</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42857</c:v>
+                  <c:v>42840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,9 +284,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -341,28 +312,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -377,11 +333,235 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="70000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="C00000"/>
+                  </a:gs>
+                  <a:gs pos="70000">
+                    <a:srgbClr val="C00000"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="C00000"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="0" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FE32-4D45-9E5A-AAB23CCDB944}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Literature review</c:v>
                 </c:pt>
@@ -407,24 +587,12 @@
                   <c:v>Build robust model comprising all parameters</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Make predictions on unknown materials for aggregate properties</c:v>
+                  <c:v>Make predictions and Validate using FE Simulations</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Validate the results using FE simulation</c:v>
+                  <c:v>Create Image-Processing model and Inverse Optimization techniques</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Implement alternative definition of structure factor</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Refine and tweak model</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Create Image-Processing model</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Define Inverse Optimization techniques</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Evaluation and Summarising Results</c:v>
                 </c:pt>
               </c:strCache>
@@ -432,10 +600,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -461,28 +629,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,13 +1362,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1542,13 +1695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1566,7 +1721,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>42583</v>
@@ -1577,7 +1732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>42623</v>
@@ -1588,7 +1743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>42633</v>
@@ -1599,7 +1754,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>42653</v>
@@ -1621,7 +1776,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>42679</v>
@@ -1632,7 +1787,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>42705</v>
@@ -1643,7 +1798,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42750</v>
@@ -1654,92 +1809,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>42781</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>42795</v>
+        <v>42809</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>42809</v>
+        <v>42840</v>
       </c>
       <c r="C12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42814</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <v>42821</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42836</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>42850</v>
-      </c>
-      <c r="C16">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>42857</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
